--- a/EXCEL/component.xlsx
+++ b/EXCEL/component.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>комп 1</t>
+          <t>масло абрикосовой косточки</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>218.5</v>
+        <v>8.40506000000091</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>550</v>
       </c>
       <c r="F2" t="n">
-        <v>2403.5</v>
+        <v>4622.783000000501</v>
       </c>
     </row>
     <row r="3">
@@ -488,20 +488,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>комп 2</t>
+          <t>масло авокадо</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="4">
@@ -510,20 +510,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>комп 3</t>
+          <t>масло алмы</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-718.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="F4" t="n">
-        <v>-7185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -532,20 +532,7096 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>комп 4</t>
+          <t>масло андиробы</t>
         </is>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>масло апельсиновой косточки</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4530</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>масло аргана</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1270</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2755.9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>масло бабасу</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>масло баобаба</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">масло брокколи
+</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5900</v>
+      </c>
+      <c r="F10" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">масло виноградной косточки
+</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>420</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9567.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">масло грецкого ореха
+</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>520</v>
+      </c>
+      <c r="F12" t="n">
+        <v>904.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">масло гранатовой косточки
+</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10710</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">масло жожоба
+</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">масло зародышей пшеницы
+</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>720</v>
+      </c>
+      <c r="F15" t="n">
+        <v>878.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">масло инжира 
+</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3900</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">масло календулы
+</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">масло касторовое
+</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>400</v>
+      </c>
+      <c r="F18" t="n">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">масло кокоса рафинированное
+</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>350</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">масло кокоса нерафинированное
+</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>820</v>
+      </c>
+      <c r="F20" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">масло какао 
+</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>750</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">масло конопляное
+</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>950</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">масло кунжутное
+</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>660</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>масло вишневой косточки</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3240</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>масло камелии</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1520</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>масло кофе</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>масло лавра</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5200</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>масло макадамии</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>700</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>масло маракуйя</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>масло миндаля сладкого</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>530</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7716.8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>масло Моной де Таити</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>масло облепиховое</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>700</v>
+      </c>
+      <c r="F32" t="n">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>масло оливковое</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>640</v>
+      </c>
+      <c r="F33" t="n">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>масло ореха фисташки</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>масло пальмы</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>540</v>
+      </c>
+      <c r="F35" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>масло персиковое</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>5830</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>870</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5072100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>масло пенника лугового</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4850</v>
+      </c>
+      <c r="F37" t="n">
+        <v>242.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>масло примулы вечерней</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4350</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>масло розы</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>масло рисовых отрубей</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3800</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>750</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2850000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>масло тыквенных семян</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>900</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>масло усьмы</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2740</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5754</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>масло ши</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>540</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5778</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>масло черного тмина</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1750</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>масло шиповника</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1320</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>масло чиа</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>990</v>
+      </c>
+      <c r="F46" t="n">
+        <v>118.8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>омыленное масло подсолнечника</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>610</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>листья эвкалипта</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>290</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>эфирное масло эвкалипта</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>360</v>
+      </c>
+      <c r="F49" t="n">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ксантан</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>глина Гассул</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2170</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>аллантоин</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E52" t="n">
+        <v>910</v>
+      </c>
+      <c r="F52" t="n">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>мумие</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>6750</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5737.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>гиалуроновая кислота высокомолек</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E54" t="n">
+        <v>49600</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>гиалуроновая кислота среднемолек</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>35000</v>
+      </c>
+      <c r="F55" t="n">
+        <v>15750</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>гиалуроновая кислота низкомолек</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E56" t="n">
+        <v>75000</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>аллюмокалиевые квасцы</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>250</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>лецитин соевый</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>650</v>
+      </c>
+      <c r="F58" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>НУФ</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4900</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>пчелиный воск</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F60" t="n">
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Д-пантенол</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ментол</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F62" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>кофе молотый</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>130</v>
+      </c>
+      <c r="D63" t="n">
+        <v>20</v>
+      </c>
+      <c r="E63" t="n">
+        <v>600</v>
+      </c>
+      <c r="F63" t="n">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>какао тертое</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>670</v>
+      </c>
+      <c r="F64" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>сахар</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>340</v>
+      </c>
+      <c r="D65" t="n">
         <v>100</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E65" t="n">
+        <v>72</v>
+      </c>
+      <c r="F65" t="n">
+        <v>24480</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>соль</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>950</v>
+      </c>
+      <c r="D66" t="n">
+        <v>500</v>
+      </c>
+      <c r="E66" t="n">
+        <v>14</v>
+      </c>
+      <c r="F66" t="n">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>солевая основа</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>250</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>лимонная кислота</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>520</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>кетон малины</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F69" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>протеины пшеницы</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1560</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>протеины шелка</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>7200</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>протеины риса</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Твин -80</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>11</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>560</v>
+      </c>
+      <c r="F73" t="n">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Комплекс ана-кислот</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4800</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> глина розовая</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>80</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>глина голубая</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>8</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>120</v>
+      </c>
+      <c r="F76" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>лецигель</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5500</v>
+      </c>
+      <c r="F77" t="n">
+        <v>25850</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>глицерин</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>562</v>
+      </c>
+      <c r="D78" t="n">
+        <v>50</v>
+      </c>
+      <c r="E78" t="n">
+        <v>250</v>
+      </c>
+      <c r="F78" t="n">
+        <v>140500</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>моностеарат глицерина</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2</v>
+      </c>
+      <c r="E79" t="n">
+        <v>500</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>лизат бифидобактерий</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E80" t="n">
+        <v>13000</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>витамин А</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>15900</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Аргинин</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Витамин Е</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3320</v>
+      </c>
+      <c r="F83" t="n">
+        <v>7635.999999999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Витамин В3 (витамин PP)</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Витамин F</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1430</v>
+      </c>
+      <c r="F85" t="n">
+        <v>371.8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Витамин Р (рутин)</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>комплекс липосом</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E87" t="n">
+        <v>14450</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>коллаген морской порошок</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>6500</v>
+      </c>
+      <c r="F88" t="n">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>коллаген морской жидкий</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3300</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8910</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>кератин</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1540</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>молочная кислота</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>20</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>350</v>
+      </c>
+      <c r="F91" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>бисаболол</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F92" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>муцин улитки</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3750</v>
+      </c>
+      <c r="F93" t="n">
+        <v>20625</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>диоксид титана</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1310</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Полиглутаминовая кислота</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E95" t="n">
+        <v>250000</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>глюконолактон дельта</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Lift oleoactif</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>22000</v>
+      </c>
+      <c r="F97" t="n">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LOOK</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>17500</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>дермонектин</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>21000</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Glycoin natural</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>24000</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>REGU-AGE</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Алоэ-вера гель</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>гидрованс</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>15</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5</v>
+      </c>
+      <c r="E103" t="n">
+        <v>850</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12750</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>гидроксид натрия(НАТР едкий)</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>50</v>
+      </c>
+      <c r="D104" t="n">
+        <v>50</v>
+      </c>
+      <c r="E104" t="n">
+        <v>115</v>
+      </c>
+      <c r="F104" t="n">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>кокосовая стружка</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>450</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>карбоксиметилцеллюлоза(КМЦ)</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>50</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1250</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>эуксил РЕ 9010</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2880</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>СЛЕС 7 (синтанол АЛМ 7)</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1575</v>
+      </c>
+      <c r="D108" t="n">
+        <v>170</v>
+      </c>
+      <c r="E108" t="n">
+        <v>230</v>
+      </c>
+      <c r="F108" t="n">
+        <v>362250</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>АОС (альфаолефин сульфонат натрия)</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>500</v>
+      </c>
+      <c r="D109" t="n">
+        <v>100</v>
+      </c>
+      <c r="E109" t="n">
+        <v>240</v>
+      </c>
+      <c r="F109" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>пеногаситель S17Y-1 Силиконовый</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>510</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SLES 2 Лауретсульфат натрия</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>4570</v>
+      </c>
+      <c r="D111" t="n">
+        <v>250</v>
+      </c>
+      <c r="E111" t="n">
+        <v>140</v>
+      </c>
+      <c r="F111" t="n">
+        <v>639800</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>карбамид</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>400</v>
+      </c>
+      <c r="D112" t="n">
+        <v>200</v>
+      </c>
+      <c r="E112" t="n">
+        <v>55</v>
+      </c>
+      <c r="F112" t="n">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ДЭА (Диэтаноламид)</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>777</v>
+      </c>
+      <c r="D113" t="n">
+        <v>190</v>
+      </c>
+      <c r="E113" t="n">
+        <v>240</v>
+      </c>
+      <c r="F113" t="n">
+        <v>186480</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Консервант МИТ СМИТ</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>66</v>
+      </c>
+      <c r="D114" t="n">
+        <v>50</v>
+      </c>
+      <c r="E114" t="n">
+        <v>200</v>
+      </c>
+      <c r="F114" t="n">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>EDTA Динатриевая соль</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>375</v>
+      </c>
+      <c r="D115" t="n">
+        <v>100</v>
+      </c>
+      <c r="E115" t="n">
+        <v>350</v>
+      </c>
+      <c r="F115" t="n">
+        <v>131250</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>АПГ (Алкилполигликозид С8-С10) 50%</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>420</v>
+      </c>
+      <c r="D116" t="n">
+        <v>220</v>
+      </c>
+      <c r="E116" t="n">
+        <v>210</v>
+      </c>
+      <c r="F116" t="n">
+        <v>88200</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ПЭГ-40</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D117" t="n">
         <v>10</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E117" t="n">
+        <v>867</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3381.3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Polyquaternium-7 (ФЛОКАР С1-7 1РРМ)</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>15</v>
+      </c>
+      <c r="E118" t="n">
+        <v>108</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>масло Аргана Водорастворимое</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1940</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>масло Макадамии Водорастворимое</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>985</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>масло Миндаля сладкого Водораствримое</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>915</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>масло Бабасу Водорастворимое</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1651</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Саркозинат натрия,sodium lauril sarcozinat</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>345</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>эстеркват АЛКВАТ Т90</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>180</v>
+      </c>
+      <c r="D124" t="n">
+        <v>190</v>
+      </c>
+      <c r="E124" t="n">
+        <v>285</v>
+      </c>
+      <c r="F124" t="n">
+        <v>51300</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">эфирное масло чайного дерева </t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>390</v>
+      </c>
+      <c r="F125" t="n">
+        <v>429.0000000000001</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>эфирное масло мяты</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E126" t="n">
+        <v>240</v>
+      </c>
+      <c r="F126" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>эфирное масло лемонграсса</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4270</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>эфирное масло апельсина</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E128" t="n">
+        <v>340</v>
+      </c>
+      <c r="F128" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>СО2 экстракт алоэ вера</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>6500</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>СО2 экстракт амаранта</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>8400</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>СО2 экстракт арники</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F131" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>СО2 экстракт бархата амурского</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>СО2 готу кола</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9400</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>экстракт голубых водорослей (ЛАНАБЛЮ)</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>СО2 экстракт гуараны</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>16400</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>СО2 экстракт грейпфрута</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>7600</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>СО2 экстракт гречихи</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>6330</v>
+      </c>
+      <c r="F137" t="n">
+        <v>411.45</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>СО2 экстракт зверобоя</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5100</v>
+      </c>
+      <c r="F138" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>СО2 экстракт имбиря</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F139" t="n">
+        <v>616.0000000000001</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>СО2 экстракт календулы</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>6100</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>СО2 экстракт корицы</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F141" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>СО2 экстракт крапивы</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F142" t="n">
+        <v>717.5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>СО2 экстракт коры дуба</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F143" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>СО2 экстракт кофе зеленого</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6720</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>СО2 экстракт красного перца</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>СО2 экстракт ламинарии</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F146" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>СО2 экстракт лилии белой</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F147" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>СO2 экстаркт манго</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F148" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>СО2 экстракт маклейи</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>7106</v>
+      </c>
+      <c r="F149" t="n">
+        <v>923.7800000000001</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>СО2 экстракт малины</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9950</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>СО2 экстракт мальвы</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6900</v>
+      </c>
+      <c r="F151" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>СО2 экстракт мяты</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5430</v>
+      </c>
+      <c r="F152" t="n">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>СО2 экстракт мускатного ореха</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>5300</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>СО2 экстракт облепихи</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4650</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>СО2 экстракт огурца</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3300</v>
+      </c>
+      <c r="F155" t="n">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>СО2 экстракт оливы</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>7100</v>
+      </c>
+      <c r="F156" t="n">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>СО2 экстракт розмарина</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6600</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>СО2 экстракт родиолы розовой</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F158" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>СО2 Экстракт ромашки</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>5400</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>СО2 экстракт плюща</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>5500</v>
+      </c>
+      <c r="F160" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>СО2 экстракт фикуса</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6900</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>СО2 экстракт фукуса (водоросли)</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>6900</v>
+      </c>
+      <c r="F162" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>СО2 экстракт хны</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>5610</v>
+      </c>
+      <c r="F163" t="n">
+        <v>392.7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>СО2 экстракт хвоща</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4500</v>
+      </c>
+      <c r="F164" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>СО2 экстракт череды</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E165" t="n">
+        <v>6050</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1028.5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>СО2 экстракт шалфея</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4800</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>СО2 экстракт шиповника</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>СО2 экстракт яблока</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>6500</v>
+      </c>
+      <c r="F168" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Купаж 2 </t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E169" t="n">
+        <v>5600</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Купаж 3 </t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5700</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Купаж 4</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5980</v>
+      </c>
+      <c r="F171" t="n">
+        <v>478.4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Купаж 5</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5507</v>
+      </c>
+      <c r="F172" t="n">
+        <v>413.025</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Купаж 6</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4415</v>
+      </c>
+      <c r="F173" t="n">
+        <v>242.825</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Купаж 7</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6065</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1031.05</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Купаж 8</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>6100</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Купаж 14</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>4800</v>
+      </c>
+      <c r="F176" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Купаж 16</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F177" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Купаж 17</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E178" t="n">
+        <v>6100</v>
+      </c>
+      <c r="F178" t="n">
+        <v>5795</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Купаж 18</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5550</v>
+      </c>
+      <c r="F179" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Купаж 20</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5200</v>
+      </c>
+      <c r="F180" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Купаж 22</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E181" t="n">
+        <v>650</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Купаж 24</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5500</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Купаж 27</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E183" t="n">
+        <v>6900</v>
+      </c>
+      <c r="F183" t="n">
+        <v>966.0000000000001</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>купаж 29</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E184" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Купаж 30</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>6800</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Купаж 32</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E186" t="n">
+        <v>6600</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Купаж 34</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>6400</v>
+      </c>
+      <c r="F187" t="n">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Купаж 35</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Купаж 38</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>7115</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1067.25</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Купаж 39</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>6300</v>
+      </c>
+      <c r="F190" t="n">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Купаж 40</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>6400</v>
+      </c>
+      <c r="F191" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Купаж 41</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>7400</v>
+      </c>
+      <c r="F192" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Купаж 42</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>6400</v>
+      </c>
+      <c r="F193" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>экстракт василька водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E194" t="n">
+        <v>861</v>
+      </c>
+      <c r="F194" t="n">
+        <v>551.04</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>экстракт акации водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E195" t="n">
+        <v>380</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>экстракт алоэ водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E196" t="n">
+        <v>950</v>
+      </c>
+      <c r="F196" t="n">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>экстракт вишни водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E197" t="n">
+        <v>974</v>
+      </c>
+      <c r="F197" t="n">
+        <v>905.8200000000001</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>экстракт гинго билобы водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E198" t="n">
+        <v>923</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1181.44</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>экстракт гамамелиса водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F199" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>экстракт мандарина водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E200" t="n">
+        <v>974</v>
+      </c>
+      <c r="F200" t="n">
+        <v>701.28</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>экстракт ромашки водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E201" t="n">
+        <v>360</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>экстракт малины водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F202" t="n">
+        <v>194.18</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>экстракт чистотела водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E203" t="n">
+        <v>861</v>
+      </c>
+      <c r="F203" t="n">
+        <v>835.17</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>экстракт лаванды водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>экстракт облепихи водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E205" t="n">
+        <v>980</v>
+      </c>
+      <c r="F205" t="n">
+        <v>431.2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>экстракт календулы водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E206" t="n">
+        <v>911</v>
+      </c>
+      <c r="F206" t="n">
+        <v>309.74</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>экстракт шалфея водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>экстракт череды водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>экстракт эхинацеи водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E209" t="n">
+        <v>900</v>
+      </c>
+      <c r="F209" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>экстракт каштана водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E210" t="n">
+        <v>836</v>
+      </c>
+      <c r="F210" t="n">
+        <v>409.64</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>экстракт крапивы водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E211" t="n">
+        <v>750</v>
+      </c>
+      <c r="F211" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>экстракт солодки водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>экстракт винограда водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E213" t="n">
+        <v>840</v>
+      </c>
+      <c r="F213" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>гидролат розы</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>15</v>
+      </c>
+      <c r="D214" t="n">
+        <v>20</v>
+      </c>
+      <c r="E214" t="n">
+        <v>350</v>
+      </c>
+      <c r="F214" t="n">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>гидролат лаванды</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>20</v>
+      </c>
+      <c r="D215" t="n">
+        <v>5</v>
+      </c>
+      <c r="E215" t="n">
+        <v>200</v>
+      </c>
+      <c r="F215" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>гидролат ромашки</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>5</v>
+      </c>
+      <c r="D216" t="n">
+        <v>5</v>
+      </c>
+      <c r="E216" t="n">
+        <v>200</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>гидролат огурца</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1</v>
+      </c>
+      <c r="E217" t="n">
+        <v>200</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>гидролат василька</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>2</v>
+      </c>
+      <c r="D218" t="n">
+        <v>5</v>
+      </c>
+      <c r="E218" t="n">
+        <v>250</v>
+      </c>
+      <c r="F218" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>гидролат кипрея</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>200</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>гидролат яблока</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>4</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>200</v>
+      </c>
+      <c r="F220" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>гидролат мяты</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>25</v>
+      </c>
+      <c r="D221" t="n">
+        <v>5</v>
+      </c>
+      <c r="E221" t="n">
+        <v>200</v>
+      </c>
+      <c r="F221" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>гидролат мелиссы</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>23</v>
+      </c>
+      <c r="D222" t="n">
+        <v>5</v>
+      </c>
+      <c r="E222" t="n">
+        <v>200</v>
+      </c>
+      <c r="F222" t="n">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>гидролат зеленого чая</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>50</v>
+      </c>
+      <c r="D223" t="n">
+        <v>5</v>
+      </c>
+      <c r="E223" t="n">
+        <v>200</v>
+      </c>
+      <c r="F223" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>гидролат календулы</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
         <v>10</v>
       </c>
-      <c r="F5" t="n">
-        <v>1000</v>
+      <c r="D224" t="n">
+        <v>5</v>
+      </c>
+      <c r="E224" t="n">
+        <v>200</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>гидролат розмарина</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>25</v>
+      </c>
+      <c r="D225" t="n">
+        <v>10</v>
+      </c>
+      <c r="E225" t="n">
+        <v>250</v>
+      </c>
+      <c r="F225" t="n">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>гидролат крапивы</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>10</v>
+      </c>
+      <c r="D226" t="n">
+        <v>5</v>
+      </c>
+      <c r="E226" t="n">
+        <v>200</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>гидролат лопуха</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>2</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1</v>
+      </c>
+      <c r="E227" t="n">
+        <v>200</v>
+      </c>
+      <c r="F227" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>гидролат шалфея</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>30</v>
+      </c>
+      <c r="D228" t="n">
+        <v>5</v>
+      </c>
+      <c r="E228" t="n">
+        <v>200</v>
+      </c>
+      <c r="F228" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>гидролат иланг иланг</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>10</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>600</v>
+      </c>
+      <c r="F229" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>гидролат жасмина</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>10</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>600</v>
+      </c>
+      <c r="F230" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>гидролат малины</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>11</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" t="n">
+        <v>200</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ароматизатор ADULA</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1</v>
+      </c>
+      <c r="E232" t="n">
+        <v>5252</v>
+      </c>
+      <c r="F232" t="n">
+        <v>9191</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>ароматизатор Алоэ вера</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ароматизатор Арбуз</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>2850</v>
+      </c>
+      <c r="F234" t="n">
+        <v>9405</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>ароматизатор Baccarat</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E235" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F235" t="n">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>ароматизатор Бубль гам</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E236" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F236" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>ароматизатор Вишня</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>ароматизатор Дыня</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" t="n">
+        <v>3120</v>
+      </c>
+      <c r="F238" t="n">
+        <v>7488</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>ароматизатор Зеленое яблоко</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1860</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>ароматизатор Green tea relax</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E240" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F240" t="n">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>ароматизатор Горячее молоко</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D241" t="n">
+        <v>10</v>
+      </c>
+      <c r="E241" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F241" t="n">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ароматизатор Жасмин</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>ароматизатор Circe CIR00003</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>ароматизатор Coconut chocolate(кокос и шоколад)</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>ароматизатор Кокос</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1</v>
+      </c>
+      <c r="E245" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F245" t="n">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>ароматизатор Какиидит</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>5630</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>ароматизатор Клубника</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>ароматизатор Лайм</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>ароматизатор Mango grapefruit KD0319(Манго и грейпфрут)</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>ароматизатор Маракуйя</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E250" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F250" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>ароматизатор Мускат</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" t="n">
+        <v>3530</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>ароматизатор Мускатель</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>3530</v>
+      </c>
+      <c r="F252" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>ароматизатор Pinky</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1</v>
+      </c>
+      <c r="E253" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F253" t="n">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>ароматизатор Princess</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1</v>
+      </c>
+      <c r="E254" t="n">
+        <v>8765</v>
+      </c>
+      <c r="F254" t="n">
+        <v>28924.5</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>ароматизаторRose peony KE63698 (Пион и роза)</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E255" t="n">
+        <v>3900</v>
+      </c>
+      <c r="F255" t="n">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>ароматизатор Тропический фрукт</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E256" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>ароматизатор Ультрамарин</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>ароматизатор Роза Линдера</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F258" t="n">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>ароматизатор Роза ВМ</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="D259" t="n">
+        <v>10</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>ароматизатор Лимон ВМ</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" t="n">
+        <v>9</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ароматизатор Альпийская свежесть </t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>9</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>очищенная вода</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" t="n">
+        <v>200</v>
+      </c>
+      <c r="E262" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>эмульсионный воск</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0</v>
+      </c>
+      <c r="D263" t="n">
+        <v>15</v>
+      </c>
+      <c r="E263" t="n">
+        <v>900</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>кокамидопропил бетаин</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>551</v>
+      </c>
+      <c r="D264" t="n">
+        <v>200</v>
+      </c>
+      <c r="E264" t="n">
+        <v>135</v>
+      </c>
+      <c r="F264" t="n">
+        <v>74385</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>консервант шаромикс 721</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>33</v>
+      </c>
+      <c r="D265" t="n">
+        <v>10</v>
+      </c>
+      <c r="E265" t="n">
+        <v>950</v>
+      </c>
+      <c r="F265" t="n">
+        <v>31350</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>кремообразная основа</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>42</v>
+      </c>
+      <c r="D266" t="n">
+        <v>5</v>
+      </c>
+      <c r="E266" t="n">
+        <v>350</v>
+      </c>
+      <c r="F266" t="n">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>оливем 1000</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>5</v>
+      </c>
+      <c r="D267" t="n">
+        <v>5</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>оливем 2020</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>5</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>кокоглюкозид</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>10</v>
+      </c>
+      <c r="E269" t="n">
+        <v>350</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>кокоил изетионат натрия</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D270" t="n">
+        <v>5</v>
+      </c>
+      <c r="E270" t="n">
+        <v>850</v>
+      </c>
+      <c r="F270" t="n">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>децилглюкозид</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>63</v>
+      </c>
+      <c r="D271" t="n">
+        <v>200</v>
+      </c>
+      <c r="E271" t="n">
+        <v>290</v>
+      </c>
+      <c r="F271" t="n">
+        <v>18270</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>ароматизатор Орхидея и шелк</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="D272" t="n">
+        <v>10</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F272" t="n">
+        <v>8585</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>дехикварт</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>160</v>
+      </c>
+      <c r="D273" t="n">
+        <v>20</v>
+      </c>
+      <c r="E273" t="n">
+        <v>900</v>
+      </c>
+      <c r="F273" t="n">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>BTMS</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>10</v>
+      </c>
+      <c r="D274" t="n">
+        <v>10</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F274" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>шаромикс 721</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0</v>
+      </c>
+      <c r="D275" t="n">
+        <v>10</v>
+      </c>
+      <c r="E275" t="n">
+        <v>900</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>экстракт ягод асаи водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>СО2 экстракт готу кола</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>масло арбуза</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>экстракт фукуса</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>экстракт лотоса</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>мерцающая мика</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>пигмент Жемчужный</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>ароматизатор Альпийский луг</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D283" t="n">
+        <v>10</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>ароматизатор Морской туман</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D284" t="n">
+        <v>10</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>ароматизатор Мята и ваниль</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1</v>
+      </c>
+      <c r="E285" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F285" t="n">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>ароматизатор Лимон</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D286" t="n">
+        <v>10</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>карбонат натрия (сода кальцинированная техническая)</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>10</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>ароматизатор Лаванда ВМ</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>8</v>
+      </c>
+      <c r="D288" t="n">
+        <v>10</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>ароматизатор Манго</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>масло грейпфрута</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1530</v>
+      </c>
+      <c r="F290" t="n">
+        <v>2478.6</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>алоэ вера гель</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1</v>
+      </c>
+      <c r="E291" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F291" t="n">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>масло алоэ</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E292" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F292" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>кофеин</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>2</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1</v>
+      </c>
+      <c r="E293" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F293" t="n">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>соль крупная</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>20</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" t="n">
+        <v>40</v>
+      </c>
+      <c r="F294" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>ланолин безводный</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F295" t="n">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>фукус порошок</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1210</v>
+      </c>
+      <c r="F296" t="n">
+        <v>556.6</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>олеиновая кислота</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
+      <c r="E297" t="n">
+        <v>490</v>
+      </c>
+      <c r="F297" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>масляный экстракт череды</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
+      <c r="E298" t="n">
+        <v>590</v>
+      </c>
+      <c r="F298" t="n">
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>масляный экстракт шиповника</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>490</v>
+      </c>
+      <c r="F299" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>спирулина</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F300" t="n">
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>глицин</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1160</v>
+      </c>
+      <c r="F301" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>витамин P(рутин)</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0</v>
+      </c>
+      <c r="E302" t="n">
+        <v>16800</v>
+      </c>
+      <c r="F302" t="n">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>эфирное масло розы</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
+      <c r="E303" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F303" t="n">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>пигмент Золото Мыло</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>глитер Золото Мыло</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>пигмент Серебро Мыло</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>глитер Серебро Мыло</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>пигмент розовый Мыло</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>глитер фиолетовый Мыло</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>глитер розовый Мыло</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>пудра граната</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
+      <c r="E311" t="n">
+        <v>3180</v>
+      </c>
+      <c r="F311" t="n">
+        <v>1176.6</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>масляный экстракт календулы</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
+      <c r="E312" t="n">
+        <v>450</v>
+      </c>
+      <c r="F312" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>ароматизатор Circe</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>ароматизатор Орхидея и ваниль</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>СО2 экстракт каштана</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E315" t="n">
+        <v>5600</v>
+      </c>
+      <c r="F315" t="n">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>СО2 экстракт эхинацеи</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E316" t="n">
+        <v>5500</v>
+      </c>
+      <c r="F316" t="n">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>экстракт лаванда водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E317" t="n">
+        <v>998</v>
+      </c>
+      <c r="F317" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>экстракт солодка водноглицериновый</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E318" t="n">
+        <v>911</v>
+      </c>
+      <c r="F318" t="n">
+        <v>437.28</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>ароматизатор кокос в шоколаде</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>ароматизатор ZOE</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>ароматизатор Магма</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>ароматизатор Poppy</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>ароматизатор Лаванда</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F323" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>ароматизатор Фисташковое печенье</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>саркозинат натрия</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>380</v>
+      </c>
+      <c r="D325" t="n">
+        <v>190</v>
+      </c>
+      <c r="E325" t="n">
+        <v>345</v>
+      </c>
+      <c r="F325" t="n">
+        <v>131100</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>спирт изопропиловый</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>165</v>
+      </c>
+      <c r="D326" t="n">
+        <v>165</v>
+      </c>
+      <c r="E326" t="n">
+        <v>107</v>
+      </c>
+      <c r="F326" t="n">
+        <v>17655</v>
       </c>
     </row>
   </sheetData>
